--- a/pred_ohlcv/54/2019-10-24 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-24 ENJ ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="C2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="D2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="E2" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>2917.2488</v>
       </c>
       <c r="G2" t="n">
-        <v>67.80166666666672</v>
+        <v>67.78000000000004</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E3" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F3" t="n">
-        <v>44.3786</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>67.82500000000006</v>
+        <v>67.80166666666672</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>12522.8306</v>
+        <v>44.3786</v>
       </c>
       <c r="G4" t="n">
-        <v>67.84500000000006</v>
+        <v>67.82500000000006</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>67.5</v>
       </c>
       <c r="F5" t="n">
-        <v>118.0162</v>
+        <v>12522.8306</v>
       </c>
       <c r="G5" t="n">
-        <v>67.86500000000005</v>
+        <v>67.84500000000006</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>67.5</v>
       </c>
       <c r="F6" t="n">
-        <v>997.9999</v>
+        <v>118.0162</v>
       </c>
       <c r="G6" t="n">
-        <v>67.88000000000005</v>
+        <v>67.86500000000005</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>67.5</v>
       </c>
       <c r="F7" t="n">
-        <v>17149.489</v>
+        <v>997.9999</v>
       </c>
       <c r="G7" t="n">
-        <v>67.89166666666671</v>
+        <v>67.88000000000005</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F8" t="n">
-        <v>16383.372</v>
+        <v>17149.489</v>
       </c>
       <c r="G8" t="n">
-        <v>67.9016666666667</v>
+        <v>67.89166666666671</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1423.3475</v>
+        <v>16383.372</v>
       </c>
       <c r="G9" t="n">
-        <v>67.91333333333337</v>
+        <v>67.9016666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C10" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="D10" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E10" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="F10" t="n">
-        <v>14031.9722</v>
+        <v>1423.3475</v>
       </c>
       <c r="G10" t="n">
-        <v>67.9216666666667</v>
+        <v>67.91333333333337</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>67.3</v>
       </c>
       <c r="D11" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>67.3</v>
       </c>
       <c r="F11" t="n">
-        <v>754.0211</v>
+        <v>14031.9722</v>
       </c>
       <c r="G11" t="n">
-        <v>67.92833333333337</v>
+        <v>67.9216666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="D12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E12" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="F12" t="n">
-        <v>28547.0217</v>
+        <v>754.0211</v>
       </c>
       <c r="G12" t="n">
-        <v>67.93833333333338</v>
+        <v>67.92833333333337</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="C13" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D13" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E13" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="F13" t="n">
-        <v>7726.005</v>
+        <v>28547.0217</v>
       </c>
       <c r="G13" t="n">
-        <v>67.95500000000004</v>
+        <v>67.93833333333338</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C14" t="n">
         <v>67.90000000000001</v>
@@ -729,15 +770,18 @@
         <v>67.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F14" t="n">
-        <v>27066.3239</v>
+        <v>7726.005</v>
       </c>
       <c r="G14" t="n">
-        <v>67.96333333333338</v>
+        <v>67.95500000000004</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>68.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>68.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>15088.1</v>
+        <v>27066.3239</v>
       </c>
       <c r="G15" t="n">
-        <v>67.9616666666667</v>
+        <v>67.96333333333338</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>68.3</v>
       </c>
       <c r="C16" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D16" t="n">
         <v>68.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>68.3</v>
+        <v>67.8</v>
       </c>
       <c r="F16" t="n">
-        <v>10090.1616</v>
+        <v>15088.1</v>
       </c>
       <c r="G16" t="n">
-        <v>67.96833333333338</v>
+        <v>67.9616666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C17" t="n">
-        <v>69</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>69</v>
+        <v>68.3</v>
       </c>
       <c r="F17" t="n">
-        <v>369.4085</v>
+        <v>10090.1616</v>
       </c>
       <c r="G17" t="n">
-        <v>67.98666666666671</v>
+        <v>67.96833333333338</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>69</v>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>69</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>369.4085</v>
       </c>
       <c r="G18" t="n">
-        <v>68.00333333333337</v>
+        <v>67.98666666666671</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="F19" t="n">
-        <v>3130</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="n">
-        <v>68.03333333333337</v>
+        <v>68.00333333333337</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>9284.5821</v>
+        <v>3130</v>
       </c>
       <c r="G20" t="n">
-        <v>68.07833333333338</v>
+        <v>68.03333333333337</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>69.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>71.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>86460.83530000001</v>
+        <v>9284.5821</v>
       </c>
       <c r="G21" t="n">
-        <v>68.12666666666671</v>
+        <v>68.07833333333338</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="C22" t="n">
-        <v>70.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="D22" t="n">
-        <v>70.09999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="F22" t="n">
-        <v>110</v>
+        <v>86460.83530000001</v>
       </c>
       <c r="G22" t="n">
-        <v>68.18333333333338</v>
+        <v>68.12666666666671</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,25 +1022,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>69.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>69.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>69.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>69.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>59.7557</v>
+        <v>110</v>
       </c>
       <c r="G23" t="n">
-        <v>68.23000000000005</v>
+        <v>68.18333333333338</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -980,25 +1051,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1206.7164</v>
+        <v>59.7557</v>
       </c>
       <c r="G24" t="n">
-        <v>68.25166666666671</v>
+        <v>68.23000000000005</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="C25" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="E25" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>9284.5821</v>
+        <v>1206.7164</v>
       </c>
       <c r="G25" t="n">
-        <v>68.23500000000004</v>
+        <v>68.25166666666671</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>1609.2545</v>
+        <v>9284.5821</v>
       </c>
       <c r="G26" t="n">
-        <v>68.2266666666667</v>
+        <v>68.23500000000004</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="C27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="D27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>1609.2545</v>
       </c>
       <c r="G27" t="n">
-        <v>68.22333333333337</v>
+        <v>68.2266666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>69.2</v>
       </c>
       <c r="C28" t="n">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D28" t="n">
         <v>69.2</v>
       </c>
       <c r="E28" t="n">
-        <v>69.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="F28" t="n">
-        <v>4629.4415</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>68.22000000000003</v>
+        <v>68.22333333333337</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="C29" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="E29" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>4629.4415</v>
       </c>
       <c r="G29" t="n">
         <v>68.22000000000003</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>69.3</v>
       </c>
       <c r="C30" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="D30" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E30" t="n">
         <v>69.3</v>
       </c>
       <c r="F30" t="n">
-        <v>11918.7</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>68.22333333333336</v>
+        <v>68.22000000000003</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>69.3</v>
       </c>
       <c r="C31" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>69.3</v>
       </c>
       <c r="F31" t="n">
-        <v>501.4012</v>
+        <v>11918.7</v>
       </c>
       <c r="G31" t="n">
-        <v>68.23500000000003</v>
+        <v>68.22333333333336</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>69.3</v>
       </c>
       <c r="F32" t="n">
-        <v>7948.8811</v>
+        <v>501.4012</v>
       </c>
       <c r="G32" t="n">
-        <v>68.24833333333336</v>
+        <v>68.23500000000003</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>69.3</v>
       </c>
       <c r="F33" t="n">
-        <v>7303.9998</v>
+        <v>7948.8811</v>
       </c>
       <c r="G33" t="n">
-        <v>68.26500000000003</v>
+        <v>68.24833333333336</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="C34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="D34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="E34" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>7303.9998</v>
       </c>
       <c r="G34" t="n">
-        <v>68.28000000000002</v>
+        <v>68.26500000000003</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="C35" t="n">
         <v>69.2</v>
       </c>
       <c r="D35" t="n">
-        <v>69.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E35" t="n">
         <v>69.2</v>
       </c>
       <c r="F35" t="n">
-        <v>69.6063</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="n">
-        <v>68.29500000000002</v>
+        <v>68.28000000000002</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>69.2</v>
       </c>
       <c r="D36" t="n">
-        <v>69.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E36" t="n">
         <v>69.2</v>
       </c>
       <c r="F36" t="n">
-        <v>133.5903</v>
+        <v>69.6063</v>
       </c>
       <c r="G36" t="n">
-        <v>68.31</v>
+        <v>68.29500000000002</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="C37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="D37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="E37" t="n">
-        <v>68.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="F37" t="n">
-        <v>1290</v>
+        <v>133.5903</v>
       </c>
       <c r="G37" t="n">
-        <v>68.31999999999999</v>
+        <v>68.31</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>16366.6961</v>
+        <v>1290</v>
       </c>
       <c r="G38" t="n">
-        <v>68.33</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="D39" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="F39" t="n">
         <v>16366.6961</v>
       </c>
       <c r="G39" t="n">
-        <v>68.33833333333334</v>
+        <v>68.33</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>68.8</v>
       </c>
       <c r="C40" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="D40" t="n">
         <v>68.8</v>
       </c>
       <c r="E40" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F40" t="n">
-        <v>8320</v>
+        <v>16366.6961</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34999999999999</v>
+        <v>68.33833333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>68.8</v>
       </c>
       <c r="C41" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="D41" t="n">
         <v>68.8</v>
       </c>
       <c r="E41" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="F41" t="n">
-        <v>2223</v>
+        <v>8320</v>
       </c>
       <c r="G41" t="n">
-        <v>68.36166666666666</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="D42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="E42" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1628</v>
+        <v>2223</v>
       </c>
       <c r="G42" t="n">
-        <v>68.37499999999999</v>
+        <v>68.36166666666666</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>68.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>3499.2794</v>
+        <v>1628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.39333333333333</v>
+        <v>68.37499999999999</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="D44" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="E44" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>32616</v>
+        <v>3499.2794</v>
       </c>
       <c r="G44" t="n">
-        <v>68.40333333333334</v>
+        <v>68.39333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>68.8</v>
       </c>
       <c r="F45" t="n">
-        <v>8943.999900000001</v>
+        <v>32616</v>
       </c>
       <c r="G45" t="n">
-        <v>68.41000000000001</v>
+        <v>68.40333333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>68.8</v>
       </c>
       <c r="F46" t="n">
-        <v>35336.4494</v>
+        <v>8943.999900000001</v>
       </c>
       <c r="G46" t="n">
-        <v>68.41666666666669</v>
+        <v>68.41000000000001</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C47" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="D47" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E47" t="n">
-        <v>68.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="F47" t="n">
-        <v>30496.4897</v>
+        <v>35336.4494</v>
       </c>
       <c r="G47" t="n">
-        <v>68.42833333333334</v>
+        <v>68.41666666666669</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>7059.6948</v>
+        <v>30496.4897</v>
       </c>
       <c r="G48" t="n">
-        <v>68.43833333333335</v>
+        <v>68.42833333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E49" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F49" t="n">
-        <v>570</v>
+        <v>7059.6948</v>
       </c>
       <c r="G49" t="n">
-        <v>68.45500000000001</v>
+        <v>68.43833333333335</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>69.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>1450</v>
+        <v>570</v>
       </c>
       <c r="G50" t="n">
-        <v>68.47500000000004</v>
+        <v>68.45500000000001</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>3327.7948</v>
+        <v>1450</v>
       </c>
       <c r="G51" t="n">
-        <v>68.4916666666667</v>
+        <v>68.47500000000004</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="C52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="D52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="E52" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F52" t="n">
-        <v>12460</v>
+        <v>3327.7948</v>
       </c>
       <c r="G52" t="n">
-        <v>68.50500000000004</v>
+        <v>68.4916666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>68.7</v>
       </c>
       <c r="F53" t="n">
-        <v>34401</v>
+        <v>12460</v>
       </c>
       <c r="G53" t="n">
-        <v>68.51833333333337</v>
+        <v>68.50500000000004</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>69</v>
+        <v>68.7</v>
       </c>
       <c r="C54" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="D54" t="n">
-        <v>69</v>
+        <v>68.7</v>
       </c>
       <c r="E54" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="F54" t="n">
-        <v>75.536</v>
+        <v>34401</v>
       </c>
       <c r="G54" t="n">
-        <v>68.53333333333337</v>
+        <v>68.51833333333337</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D55" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E55" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F55" t="n">
-        <v>205.0075</v>
+        <v>75.536</v>
       </c>
       <c r="G55" t="n">
-        <v>68.55500000000005</v>
+        <v>68.53333333333337</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>68.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E56" t="n">
         <v>68.7</v>
       </c>
       <c r="F56" t="n">
-        <v>209.4755</v>
+        <v>205.0075</v>
       </c>
       <c r="G56" t="n">
-        <v>68.57000000000004</v>
+        <v>68.55500000000005</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C57" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D57" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E57" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F57" t="n">
-        <v>106.8017</v>
+        <v>209.4755</v>
       </c>
       <c r="G57" t="n">
-        <v>68.59500000000004</v>
+        <v>68.57000000000004</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>15974.7998</v>
+        <v>106.8017</v>
       </c>
       <c r="G58" t="n">
-        <v>68.61500000000004</v>
+        <v>68.59500000000004</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="C59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="D59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="E59" t="n">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1266.4792</v>
+        <v>15974.7998</v>
       </c>
       <c r="G59" t="n">
-        <v>68.63500000000003</v>
+        <v>68.61500000000004</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>68.7</v>
       </c>
       <c r="C60" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D60" t="n">
         <v>68.7</v>
       </c>
       <c r="E60" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F60" t="n">
-        <v>18026.999</v>
+        <v>1266.4792</v>
       </c>
       <c r="G60" t="n">
-        <v>68.65333333333338</v>
+        <v>68.63500000000003</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="C61" t="n">
-        <v>69.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E61" t="n">
-        <v>68.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>19581.1365</v>
+        <v>18026.999</v>
       </c>
       <c r="G61" t="n">
-        <v>68.67666666666672</v>
+        <v>68.65333333333338</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>69.2</v>
+        <v>68.8</v>
       </c>
       <c r="C62" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>69.2</v>
+        <v>68.8</v>
       </c>
       <c r="F62" t="n">
-        <v>6348.4171</v>
+        <v>19581.1365</v>
       </c>
       <c r="G62" t="n">
-        <v>68.70666666666672</v>
+        <v>68.67666666666672</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="C63" t="n">
         <v>69.3</v>
@@ -2003,15 +2191,18 @@
         <v>69.3</v>
       </c>
       <c r="E63" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="F63" t="n">
-        <v>1380</v>
+        <v>6348.4171</v>
       </c>
       <c r="G63" t="n">
-        <v>68.73500000000006</v>
+        <v>68.70666666666672</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C64" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="D64" t="n">
-        <v>68.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E64" t="n">
-        <v>68.8</v>
+        <v>69.3</v>
       </c>
       <c r="F64" t="n">
-        <v>7509.7593</v>
+        <v>1380</v>
       </c>
       <c r="G64" t="n">
-        <v>68.75666666666672</v>
+        <v>68.73500000000006</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F65" t="n">
-        <v>193</v>
+        <v>7509.7593</v>
       </c>
       <c r="G65" t="n">
-        <v>68.77500000000006</v>
+        <v>68.75666666666672</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>36630.601</v>
+        <v>193</v>
       </c>
       <c r="G66" t="n">
-        <v>68.79333333333339</v>
+        <v>68.77500000000006</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>35890.499</v>
+        <v>36630.601</v>
       </c>
       <c r="G67" t="n">
-        <v>68.81166666666674</v>
+        <v>68.79333333333339</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>4510.4774</v>
+        <v>35890.499</v>
       </c>
       <c r="G68" t="n">
-        <v>68.83166666666675</v>
+        <v>68.81166666666674</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>108.0386</v>
+        <v>4510.4774</v>
       </c>
       <c r="G69" t="n">
-        <v>68.85000000000009</v>
+        <v>68.83166666666675</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>128.7778</v>
+        <v>108.0386</v>
       </c>
       <c r="G70" t="n">
-        <v>68.87166666666675</v>
+        <v>68.85000000000009</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>68.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>780</v>
+        <v>128.7778</v>
       </c>
       <c r="G71" t="n">
-        <v>68.88333333333343</v>
+        <v>68.87166666666675</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>68</v>
       </c>
       <c r="F72" t="n">
-        <v>9597.870800000001</v>
+        <v>780</v>
       </c>
       <c r="G72" t="n">
-        <v>68.89166666666675</v>
+        <v>68.88333333333343</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="D73" t="n">
-        <v>67.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="F73" t="n">
-        <v>29189.5121</v>
+        <v>9597.870800000001</v>
       </c>
       <c r="G73" t="n">
-        <v>68.88833333333342</v>
+        <v>68.89166666666675</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="C74" t="n">
-        <v>67</v>
+        <v>67.7</v>
       </c>
       <c r="D74" t="n">
-        <v>67.5</v>
+        <v>67.7</v>
       </c>
       <c r="E74" t="n">
-        <v>67</v>
+        <v>67.7</v>
       </c>
       <c r="F74" t="n">
-        <v>31251.1259</v>
+        <v>29189.5121</v>
       </c>
       <c r="G74" t="n">
-        <v>68.87333333333343</v>
+        <v>68.88833333333342</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C75" t="n">
         <v>67</v>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="E75" t="n">
         <v>67</v>
       </c>
       <c r="F75" t="n">
-        <v>2371.5044</v>
+        <v>31251.1259</v>
       </c>
       <c r="G75" t="n">
-        <v>68.8600000000001</v>
+        <v>68.87333333333343</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="C76" t="n">
         <v>67</v>
       </c>
       <c r="D76" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E76" t="n">
         <v>67</v>
       </c>
       <c r="F76" t="n">
-        <v>11664.8538</v>
+        <v>2371.5044</v>
       </c>
       <c r="G76" t="n">
-        <v>68.83666666666677</v>
+        <v>68.8600000000001</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>67</v>
       </c>
       <c r="D77" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E77" t="n">
         <v>67</v>
       </c>
       <c r="F77" t="n">
-        <v>5985.3124</v>
+        <v>11664.8538</v>
       </c>
       <c r="G77" t="n">
-        <v>68.80333333333344</v>
+        <v>68.83666666666677</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="C78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="D78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E78" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="F78" t="n">
-        <v>11410</v>
+        <v>5985.3124</v>
       </c>
       <c r="G78" t="n">
-        <v>68.77166666666677</v>
+        <v>68.80333333333344</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>2086.4274</v>
+        <v>11410</v>
       </c>
       <c r="G79" t="n">
-        <v>68.7350000000001</v>
+        <v>68.77166666666677</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>66.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>7645.5835</v>
+        <v>2086.4274</v>
       </c>
       <c r="G80" t="n">
-        <v>68.69166666666678</v>
+        <v>68.7350000000001</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D81" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F81" t="n">
-        <v>230.812</v>
+        <v>7645.5835</v>
       </c>
       <c r="G81" t="n">
-        <v>68.64500000000011</v>
+        <v>68.69166666666678</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>66.7</v>
       </c>
       <c r="F82" t="n">
-        <v>1747.9999</v>
+        <v>230.812</v>
       </c>
       <c r="G82" t="n">
-        <v>68.58833333333342</v>
+        <v>68.64500000000011</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>66.7</v>
       </c>
       <c r="F83" t="n">
-        <v>186.3615</v>
+        <v>1747.9999</v>
       </c>
       <c r="G83" t="n">
-        <v>68.54000000000009</v>
+        <v>68.58833333333342</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>66.7</v>
       </c>
       <c r="F84" t="n">
-        <v>1085.8795</v>
+        <v>186.3615</v>
       </c>
       <c r="G84" t="n">
-        <v>68.50333333333342</v>
+        <v>68.54000000000009</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="C85" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D85" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="E85" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F85" t="n">
-        <v>5589.143</v>
+        <v>1085.8795</v>
       </c>
       <c r="G85" t="n">
-        <v>68.47000000000008</v>
+        <v>68.50333333333342</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="E86" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>5589.143</v>
       </c>
       <c r="G86" t="n">
-        <v>68.43166666666676</v>
+        <v>68.47000000000008</v>
       </c>
       <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>66.7</v>
       </c>
       <c r="F87" t="n">
-        <v>2389</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>68.39000000000009</v>
+        <v>68.43166666666676</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E88" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F88" t="n">
-        <v>625.9835</v>
+        <v>2389</v>
       </c>
       <c r="G88" t="n">
-        <v>68.34833333333341</v>
+        <v>68.39000000000009</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>1677.0169</v>
+        <v>625.9835</v>
       </c>
       <c r="G89" t="n">
-        <v>68.30333333333343</v>
+        <v>68.34833333333341</v>
       </c>
       <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>34573.2405</v>
+        <v>1677.0169</v>
       </c>
       <c r="G90" t="n">
-        <v>68.25666666666676</v>
+        <v>68.30333333333343</v>
       </c>
       <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>2893.3319</v>
+        <v>34573.2405</v>
       </c>
       <c r="G91" t="n">
-        <v>68.20833333333343</v>
+        <v>68.25666666666676</v>
       </c>
       <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C92" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="C92" t="n">
-        <v>66.2</v>
-      </c>
       <c r="D92" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E92" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="E92" t="n">
-        <v>66.2</v>
-      </c>
       <c r="F92" t="n">
-        <v>29426.5457</v>
+        <v>2893.3319</v>
       </c>
       <c r="G92" t="n">
-        <v>68.15666666666675</v>
+        <v>68.20833333333343</v>
       </c>
       <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>66.2</v>
       </c>
       <c r="D93" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E93" t="n">
         <v>66.2</v>
       </c>
       <c r="F93" t="n">
-        <v>14561.2047</v>
+        <v>29426.5457</v>
       </c>
       <c r="G93" t="n">
-        <v>68.10500000000008</v>
+        <v>68.15666666666675</v>
       </c>
       <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C94" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D94" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E94" t="n">
-        <v>66</v>
+        <v>66.2</v>
       </c>
       <c r="F94" t="n">
-        <v>9922.9722</v>
+        <v>14561.2047</v>
       </c>
       <c r="G94" t="n">
-        <v>68.05333333333343</v>
+        <v>68.10500000000008</v>
       </c>
       <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E95" t="n">
         <v>66</v>
       </c>
       <c r="F95" t="n">
-        <v>225.4529</v>
+        <v>9922.9722</v>
       </c>
       <c r="G95" t="n">
-        <v>68.00000000000009</v>
+        <v>68.05333333333343</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>66</v>
       </c>
       <c r="F96" t="n">
-        <v>15809</v>
+        <v>225.4529</v>
       </c>
       <c r="G96" t="n">
-        <v>67.94666666666676</v>
+        <v>68.00000000000009</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="C97" t="n">
         <v>66</v>
       </c>
       <c r="D97" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="E97" t="n">
         <v>66</v>
       </c>
       <c r="F97" t="n">
-        <v>11880</v>
+        <v>15809</v>
       </c>
       <c r="G97" t="n">
-        <v>67.89833333333343</v>
+        <v>67.94666666666676</v>
       </c>
       <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>66</v>
       </c>
       <c r="D98" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E98" t="n">
         <v>66</v>
       </c>
       <c r="F98" t="n">
-        <v>19432.7857</v>
+        <v>11880</v>
       </c>
       <c r="G98" t="n">
-        <v>67.84833333333341</v>
+        <v>67.89833333333343</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>66</v>
       </c>
       <c r="F99" t="n">
-        <v>10133.6919</v>
+        <v>19432.7857</v>
       </c>
       <c r="G99" t="n">
-        <v>67.80166666666675</v>
+        <v>67.84833333333341</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="C100" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="D100" t="n">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="E100" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="F100" t="n">
-        <v>1457.7259</v>
+        <v>10133.6919</v>
       </c>
       <c r="G100" t="n">
-        <v>67.74833333333342</v>
+        <v>67.80166666666675</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="C101" t="n">
-        <v>65.7</v>
+        <v>65.5</v>
       </c>
       <c r="D101" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="E101" t="n">
-        <v>65.7</v>
+        <v>65.5</v>
       </c>
       <c r="F101" t="n">
-        <v>65.3503</v>
+        <v>1457.7259</v>
       </c>
       <c r="G101" t="n">
-        <v>67.69666666666674</v>
+        <v>67.74833333333342</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>65.7</v>
       </c>
       <c r="F102" t="n">
-        <v>109.1922</v>
+        <v>65.3503</v>
       </c>
       <c r="G102" t="n">
-        <v>67.6433333333334</v>
+        <v>67.69666666666674</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>65.7</v>
       </c>
       <c r="F103" t="n">
-        <v>113.1135</v>
+        <v>109.1922</v>
       </c>
       <c r="G103" t="n">
-        <v>67.58833333333341</v>
+        <v>67.6433333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="C104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="D104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="E104" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="F104" t="n">
-        <v>5785.9063</v>
+        <v>113.1135</v>
       </c>
       <c r="G104" t="n">
-        <v>67.53833333333341</v>
+        <v>67.58833333333341</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="D105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E105" t="n">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F105" t="n">
-        <v>5310</v>
+        <v>5785.9063</v>
       </c>
       <c r="G105" t="n">
-        <v>67.49333333333341</v>
+        <v>67.53833333333341</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>5310</v>
       </c>
       <c r="G106" t="n">
-        <v>67.46000000000008</v>
+        <v>67.49333333333341</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="C107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E107" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F107" t="n">
-        <v>2878.5607</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>67.42333333333342</v>
+        <v>67.46000000000008</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>66.7</v>
       </c>
       <c r="C108" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="D108" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E108" t="n">
         <v>66.7</v>
       </c>
       <c r="F108" t="n">
-        <v>21000</v>
+        <v>2878.5607</v>
       </c>
       <c r="G108" t="n">
-        <v>67.39000000000007</v>
+        <v>67.42333333333342</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="C109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E109" t="n">
-        <v>66.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F109" t="n">
-        <v>1200</v>
+        <v>21000</v>
       </c>
       <c r="G109" t="n">
-        <v>67.3533333333334</v>
+        <v>67.39000000000007</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G110" t="n">
-        <v>67.31500000000007</v>
+        <v>67.3533333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="C111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="D111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="E111" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="F111" t="n">
-        <v>130.3482</v>
+        <v>400</v>
       </c>
       <c r="G111" t="n">
-        <v>67.27666666666671</v>
+        <v>67.31500000000007</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="C112" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="D112" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="E112" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="F112" t="n">
-        <v>11870</v>
+        <v>130.3482</v>
       </c>
       <c r="G112" t="n">
-        <v>67.23500000000006</v>
+        <v>67.27666666666671</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E113" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F113" t="n">
-        <v>660</v>
+        <v>11870</v>
       </c>
       <c r="G113" t="n">
-        <v>67.19166666666673</v>
+        <v>67.23500000000006</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>543.5</v>
+        <v>660</v>
       </c>
       <c r="G114" t="n">
-        <v>67.15000000000006</v>
+        <v>67.19166666666673</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E115" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F115" t="n">
-        <v>260.2492</v>
+        <v>543.5</v>
       </c>
       <c r="G115" t="n">
-        <v>67.10500000000006</v>
+        <v>67.15000000000006</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>915.7728</v>
+        <v>260.2492</v>
       </c>
       <c r="G116" t="n">
-        <v>67.07333333333341</v>
+        <v>67.10500000000006</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>66.8</v>
       </c>
       <c r="F117" t="n">
-        <v>6868</v>
+        <v>915.7728</v>
       </c>
       <c r="G117" t="n">
-        <v>67.03500000000007</v>
+        <v>67.07333333333341</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="C118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="D118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="E118" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F118" t="n">
-        <v>448.7893</v>
+        <v>6868</v>
       </c>
       <c r="G118" t="n">
-        <v>67.0083333333334</v>
+        <v>67.03500000000007</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>67.2</v>
       </c>
       <c r="F119" t="n">
-        <v>26324.9478</v>
+        <v>448.7893</v>
       </c>
       <c r="G119" t="n">
-        <v>66.98333333333341</v>
+        <v>67.0083333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E120" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F120" t="n">
-        <v>5603.7425</v>
+        <v>26324.9478</v>
       </c>
       <c r="G120" t="n">
-        <v>66.96166666666674</v>
+        <v>66.98333333333341</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E121" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F121" t="n">
-        <v>2150.6064</v>
+        <v>5603.7425</v>
       </c>
       <c r="G121" t="n">
-        <v>66.93666666666674</v>
+        <v>66.96166666666674</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>1635.1403</v>
+        <v>2150.6064</v>
       </c>
       <c r="G122" t="n">
-        <v>66.91000000000007</v>
+        <v>66.93666666666674</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E123" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F123" t="n">
-        <v>110.0951</v>
+        <v>1635.1403</v>
       </c>
       <c r="G123" t="n">
-        <v>66.8783333333334</v>
+        <v>66.91000000000007</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>2200</v>
+        <v>110.0951</v>
       </c>
       <c r="G124" t="n">
-        <v>66.86166666666674</v>
+        <v>66.8783333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E125" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F125" t="n">
-        <v>4236.8188</v>
+        <v>2200</v>
       </c>
       <c r="G125" t="n">
-        <v>66.85000000000007</v>
+        <v>66.86166666666674</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>67.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>67.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>25652.6806</v>
+        <v>4236.8188</v>
       </c>
       <c r="G126" t="n">
-        <v>66.83166666666673</v>
+        <v>66.85000000000007</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F127" t="n">
-        <v>3609.6563</v>
+        <v>25652.6806</v>
       </c>
       <c r="G127" t="n">
-        <v>66.81166666666674</v>
+        <v>66.83166666666673</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>19250.5447</v>
+        <v>3609.6563</v>
       </c>
       <c r="G128" t="n">
-        <v>66.79166666666674</v>
+        <v>66.81166666666674</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>479.6336</v>
+        <v>19250.5447</v>
       </c>
       <c r="G129" t="n">
-        <v>66.77500000000008</v>
+        <v>66.79166666666674</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>68.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>68.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>68.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>15337</v>
+        <v>479.6336</v>
       </c>
       <c r="G130" t="n">
-        <v>66.78000000000007</v>
+        <v>66.77500000000008</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>68.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>68.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>68.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>14970.0598</v>
+        <v>15337</v>
       </c>
       <c r="G131" t="n">
-        <v>66.79166666666674</v>
+        <v>66.78000000000007</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="C132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="D132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="E132" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="F132" t="n">
-        <v>29.2397</v>
+        <v>14970.0598</v>
       </c>
       <c r="G132" t="n">
-        <v>66.80000000000008</v>
+        <v>66.79166666666674</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="C133" t="n">
-        <v>68.8</v>
+        <v>68.5</v>
       </c>
       <c r="D133" t="n">
-        <v>68.8</v>
+        <v>68.5</v>
       </c>
       <c r="E133" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="F133" t="n">
-        <v>19430</v>
+        <v>29.2397</v>
       </c>
       <c r="G133" t="n">
-        <v>66.81833333333341</v>
+        <v>66.80000000000008</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,7 +4241,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="C134" t="n">
         <v>68.8</v>
@@ -3849,15 +4250,18 @@
         <v>68.8</v>
       </c>
       <c r="E134" t="n">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="F134" t="n">
-        <v>487</v>
+        <v>19430</v>
       </c>
       <c r="G134" t="n">
-        <v>66.84833333333341</v>
+        <v>66.81833333333341</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>68.8</v>
       </c>
       <c r="F135" t="n">
-        <v>1254</v>
+        <v>487</v>
       </c>
       <c r="G135" t="n">
-        <v>66.87833333333342</v>
+        <v>66.84833333333341</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>68.8</v>
       </c>
       <c r="F136" t="n">
-        <v>3370</v>
+        <v>1254</v>
       </c>
       <c r="G136" t="n">
-        <v>66.90833333333343</v>
+        <v>66.87833333333342</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C137" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="D137" t="n">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E137" t="n">
-        <v>68.2</v>
+        <v>68.8</v>
       </c>
       <c r="F137" t="n">
-        <v>15233.1495</v>
+        <v>3370</v>
       </c>
       <c r="G137" t="n">
-        <v>66.92833333333343</v>
+        <v>66.90833333333343</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="D138" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="F138" t="n">
-        <v>5711.1747</v>
+        <v>15233.1495</v>
       </c>
       <c r="G138" t="n">
-        <v>66.94833333333342</v>
+        <v>66.92833333333343</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>68.5</v>
       </c>
       <c r="C139" t="n">
-        <v>68.5</v>
+        <v>68.3</v>
       </c>
       <c r="D139" t="n">
         <v>68.5</v>
       </c>
       <c r="E139" t="n">
-        <v>68.5</v>
+        <v>68.3</v>
       </c>
       <c r="F139" t="n">
-        <v>1828.7454</v>
+        <v>5711.1747</v>
       </c>
       <c r="G139" t="n">
-        <v>66.97500000000009</v>
+        <v>66.94833333333342</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,544 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>68.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C140" t="n">
-        <v>68.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D140" t="n">
-        <v>68.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E140" t="n">
-        <v>68.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F140" t="n">
-        <v>4925.9553</v>
+        <v>1828.7454</v>
       </c>
       <c r="G140" t="n">
-        <v>66.99666666666675</v>
+        <v>66.97500000000009</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>68</v>
-      </c>
-      <c r="C141" t="n">
-        <v>68</v>
-      </c>
-      <c r="D141" t="n">
-        <v>68</v>
-      </c>
-      <c r="E141" t="n">
-        <v>68</v>
-      </c>
-      <c r="F141" t="n">
-        <v>200</v>
-      </c>
-      <c r="G141" t="n">
-        <v>67.01833333333342</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>68</v>
-      </c>
-      <c r="C142" t="n">
-        <v>68</v>
-      </c>
-      <c r="D142" t="n">
-        <v>68</v>
-      </c>
-      <c r="E142" t="n">
-        <v>68</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2930</v>
-      </c>
-      <c r="G142" t="n">
-        <v>67.04000000000009</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E143" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F143" t="n">
-        <v>456.068</v>
-      </c>
-      <c r="G143" t="n">
-        <v>67.06333333333343</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>68</v>
-      </c>
-      <c r="C144" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>68</v>
-      </c>
-      <c r="E144" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>179287.1377</v>
-      </c>
-      <c r="G144" t="n">
-        <v>67.0600000000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>68</v>
-      </c>
-      <c r="C145" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D145" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E145" t="n">
-        <v>68</v>
-      </c>
-      <c r="F145" t="n">
-        <v>869</v>
-      </c>
-      <c r="G145" t="n">
-        <v>67.0800000000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D146" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E146" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>36354</v>
-      </c>
-      <c r="G146" t="n">
-        <v>67.10666666666677</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5516.1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>67.14166666666678</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G148" t="n">
-        <v>67.17666666666678</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="D149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E149" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G149" t="n">
-        <v>67.21000000000011</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3760</v>
-      </c>
-      <c r="G150" t="n">
-        <v>67.23666666666678</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>129.7987</v>
-      </c>
-      <c r="G151" t="n">
-        <v>67.26666666666678</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C152" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5130</v>
-      </c>
-      <c r="G152" t="n">
-        <v>67.30833333333345</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>160552</v>
-      </c>
-      <c r="G153" t="n">
-        <v>67.35166666666679</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>510</v>
-      </c>
-      <c r="G154" t="n">
-        <v>67.3966666666668</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E155" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1880</v>
-      </c>
-      <c r="G155" t="n">
-        <v>67.44333333333346</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>7185.3052</v>
-      </c>
-      <c r="G156" t="n">
-        <v>67.49000000000014</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>15034.2</v>
-      </c>
-      <c r="G157" t="n">
-        <v>67.5366666666668</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E158" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>7884</v>
-      </c>
-      <c r="G158" t="n">
-        <v>67.58333333333347</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C159" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F159" t="n">
-        <v>7624.153</v>
-      </c>
-      <c r="G159" t="n">
-        <v>67.63500000000015</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>69</v>
-      </c>
-      <c r="C160" t="n">
-        <v>69</v>
-      </c>
-      <c r="D160" t="n">
-        <v>69</v>
-      </c>
-      <c r="E160" t="n">
-        <v>69</v>
-      </c>
-      <c r="F160" t="n">
-        <v>7076.7291</v>
-      </c>
-      <c r="G160" t="n">
-        <v>67.69333333333347</v>
-      </c>
-      <c r="H160" t="n">
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
